--- a/docs/tables/NT1 Cod specii.xlsx
+++ b/docs/tables/NT1 Cod specii.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tabelesilv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tabelesilv\trunk\docs\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1236,7 +1236,7 @@
   <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
